--- a/DATA_goal/Junction_Flooding_210.xlsx
+++ b/DATA_goal/Junction_Flooding_210.xlsx
@@ -446,31 +446,31 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>41642.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.29</v>
+        <v>2.23</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.31</v>
+        <v>1.53</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>46.85</v>
+        <v>4.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>38.75</v>
+        <v>3.88</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>57.93</v>
+        <v>5.79</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>26.99</v>
+        <v>2.7</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.45</v>
+        <v>1.14</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.62</v>
+        <v>1.76</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.6</v>
+        <v>1.86</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.47</v>
+        <v>1.95</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.52</v>
+        <v>2.45</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.63</v>
+        <v>1.46</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>258.18</v>
+        <v>25.82</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>48.57</v>
+        <v>4.86</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.1</v>
+        <v>1.61</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>32.19</v>
+        <v>3.22</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.8</v>
+        <v>1.68</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>28.86</v>
+        <v>2.89</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.22</v>
+        <v>1.42</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.79</v>
+        <v>1.28</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.97</v>
+        <v>1.5</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.24</v>
+        <v>1.92</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>51.1</v>
+        <v>5.11</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.94</v>
+        <v>0.89</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.13</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41642.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.88</v>
+        <v>0.59</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.37</v>
+        <v>1.84</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>15.21</v>
+        <v>1.52</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>30.26</v>
+        <v>3.03</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.45</v>
+        <v>0.45</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.77</v>
+        <v>0.68</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.42</v>
+        <v>0.74</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.65</v>
+        <v>0.76</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.84</v>
+        <v>0.68</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.58</v>
+        <v>0.96</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>96.84999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>19.31</v>
+        <v>1.93</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.11</v>
+        <v>1.41</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.16</v>
+        <v>0.52</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.02</v>
+        <v>0.6</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.66</v>
+        <v>0.77</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>27.47</v>
+        <v>2.75</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.42</v>
+        <v>0.34</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41642.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.16</v>
+        <v>2.32</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>16.94</v>
+        <v>1.69</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.55</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>49.95</v>
+        <v>5</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>41.31</v>
+        <v>4.13</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.22</v>
+        <v>1.82</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>68.06999999999999</v>
+        <v>6.81</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>28.04</v>
+        <v>2.8</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.55</v>
+        <v>1.86</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>20.14</v>
+        <v>2.01</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>21.12</v>
+        <v>2.11</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.12</v>
+        <v>1.81</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>25.74</v>
+        <v>2.57</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.29</v>
+        <v>1.53</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>268.51</v>
+        <v>26.85</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>50.62</v>
+        <v>5.06</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>16.73</v>
+        <v>1.67</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>33.95</v>
+        <v>3.4</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.06</v>
+        <v>1.81</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>33.36</v>
+        <v>3.34</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>14.77</v>
+        <v>1.48</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.15</v>
+        <v>1.32</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.45</v>
+        <v>1.54</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.08</v>
+        <v>2.11</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>61.45</v>
+        <v>6.15</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.4</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>20.91</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41642.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.79</v>
+        <v>1.98</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.53</v>
+        <v>1.45</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>42.74</v>
+        <v>4.27</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>35.35</v>
+        <v>3.53</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.58</v>
+        <v>1.56</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>61.67</v>
+        <v>6.17</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.97</v>
+        <v>2.4</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.62</v>
+        <v>1.06</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.87</v>
+        <v>1.59</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.25</v>
+        <v>1.73</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.08</v>
+        <v>1.81</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.98</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.49</v>
+        <v>1.55</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.03</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.07</v>
+        <v>1.31</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>228.46</v>
+        <v>22.85</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>43.35</v>
+        <v>4.34</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.3</v>
+        <v>1.43</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>29.1</v>
+        <v>2.91</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.47</v>
+        <v>1.55</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>29.72</v>
+        <v>2.97</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.23</v>
+        <v>1.12</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.19</v>
+        <v>1.32</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.06</v>
+        <v>1.81</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>55.86</v>
+        <v>5.59</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.88</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41642.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>7.78</v>
+        <v>0.78</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>5.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="M6" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>28.28</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.03</v>
-      </c>
       <c r="N6" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>8.65</v>
+        <v>0.86</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>5.25</v>
+        <v>0.52</v>
       </c>
       <c r="R6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X6" s="4" t="n">
         <v>0.61</v>
       </c>
-      <c r="S6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>85.41</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>17.21</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.14</v>
-      </c>
       <c r="Y6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AH6" s="4" t="n">
         <v>0.7</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>25.78</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.03</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41642.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>4.52</v>
+        <v>0.45</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>7.95</v>
+        <v>0.79</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>3.55</v>
+        <v>0.36</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>16.54</v>
+        <v>1.65</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>5.47</v>
+        <v>0.55</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>3.51</v>
+        <v>0.35</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>4.99</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>3.1</v>
+        <v>0.31</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>46.48</v>
+        <v>4.65</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>6.6</v>
+        <v>0.66</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>3.59</v>
+        <v>0.36</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>7.59</v>
+        <v>0.76</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>4.09</v>
+        <v>0.41</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41642.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>18.74</v>
+        <v>1.87</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>13.89</v>
+        <v>1.39</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>40.58</v>
+        <v>4.06</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>33.55</v>
+        <v>3.35</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>14.74</v>
+        <v>1.47</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>53.23</v>
+        <v>5.32</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>22.69</v>
+        <v>2.27</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>10.09</v>
+        <v>1.01</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>15.08</v>
+        <v>1.51</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>16.38</v>
+        <v>1.64</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>17.19</v>
+        <v>1.72</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>20.87</v>
+        <v>2.09</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>12.3</v>
+        <v>1.23</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>215.84</v>
+        <v>21.58</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>40.89</v>
+        <v>4.09</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>27.54</v>
+        <v>2.75</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>14.63</v>
+        <v>1.46</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.85</v>
+        <v>0.18</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>26.4</v>
+        <v>2.64</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>11.95</v>
+        <v>1.2</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>12.43</v>
+        <v>1.24</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>17.16</v>
+        <v>1.72</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>48</v>
+        <v>4.8</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="9">
@@ -1383,16 +1383,16 @@
         <v>41642.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>0</v>
@@ -1401,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>9.41</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="M9" s="4" t="n">
         <v>0</v>
@@ -1422,16 +1422,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="S9" s="4" t="n">
         <v>0</v>
@@ -1440,46 +1440,46 @@
         <v>0</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="Y9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AA9" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="Z9" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.25</v>
-      </c>
       <c r="AB9" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>9.56</v>
+        <v>0.96</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41642.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>7.3</v>
+        <v>0.73</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>15.72</v>
+        <v>1.57</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>12.76</v>
+        <v>1.28</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>6.19</v>
+        <v>0.62</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>8.84</v>
+        <v>0.88</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>3.86</v>
+        <v>0.39</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>6.2</v>
+        <v>0.62</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>6.65</v>
+        <v>0.66</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>5.71</v>
+        <v>0.57</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>4.86</v>
+        <v>0.49</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>80.12</v>
+        <v>8.01</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>15.77</v>
+        <v>1.58</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>9.65</v>
+        <v>0.97</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>4.16</v>
+        <v>0.42</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>4.88</v>
+        <v>0.49</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>17.9</v>
+        <v>1.79</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>2.95</v>
+        <v>0.29</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>6.59</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_210.xlsx
+++ b/DATA_goal/Junction_Flooding_210.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41642.34027777778</v>
+        <v>44891.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.23</v>
+        <v>2.02</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.69</v>
+        <v>4.28</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.88</v>
+        <v>3.47</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.75</v>
+        <v>1.59</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.79</v>
+        <v>5.1</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.7</v>
+        <v>2.44</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="K2" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M2" s="4" t="n">
         <v>1.76</v>
       </c>
-      <c r="L2" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.95</v>
-      </c>
       <c r="N2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.45</v>
+        <v>2.21</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.82</v>
+        <v>23.3</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.86</v>
+        <v>4.39</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.22</v>
+        <v>2.91</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.89</v>
+        <v>2.52</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.92</v>
+        <v>1.73</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.11</v>
+        <v>4.52</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.01</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41642.34722222222</v>
+        <v>44891.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.87</v>
+        <v>2.16</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.59</v>
+        <v>1.55</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.84</v>
+        <v>4.67</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.52</v>
+        <v>3.82</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.03</v>
+        <v>6.52</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.06</v>
+        <v>2.62</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.45</v>
+        <v>1.14</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.68</v>
+        <v>1.7</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.74</v>
+        <v>1.87</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.76</v>
+        <v>1.96</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.54</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.68</v>
+        <v>1.69</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.96</v>
+        <v>2.39</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.6</v>
+        <v>1.44</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>9.69</v>
+        <v>25.02</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.93</v>
+        <v>4.73</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.63</v>
+        <v>1.56</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.26</v>
+        <v>3.16</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.68</v>
+        <v>1.66</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.41</v>
+        <v>3.15</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.38</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.52</v>
+        <v>1.24</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.6</v>
+        <v>1.45</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.77</v>
+        <v>1.94</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.75</v>
+        <v>5.92</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.34</v>
+        <v>0.87</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.79</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41642.35416666666</v>
+        <v>44891.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.32</v>
+        <v>1.92</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.69</v>
+        <v>1.4</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5</v>
+        <v>4.16</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.13</v>
+        <v>3.41</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.82</v>
+        <v>1.51</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.81</v>
+        <v>5.97</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.8</v>
+        <v>2.33</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.24</v>
+        <v>1.02</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.86</v>
+        <v>1.52</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.01</v>
+        <v>1.67</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.11</v>
+        <v>1.75</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.48</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.57</v>
+        <v>2.13</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>26.85</v>
+        <v>22.16</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.06</v>
+        <v>4.21</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.67</v>
+        <v>1.39</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.4</v>
+        <v>2.82</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.81</v>
+        <v>1.48</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.34</v>
+        <v>2.86</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.48</v>
+        <v>1.23</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.54</v>
+        <v>1.29</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.11</v>
+        <v>1.74</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.15</v>
+        <v>5.41</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.09</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41642.36111111111</v>
+        <v>44891.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.98</v>
+        <v>0.67</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E5" s="4" t="n">
         <v>1.45</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>4.27</v>
-      </c>
       <c r="F5" s="4" t="n">
-        <v>3.53</v>
+        <v>1.17</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.56</v>
+        <v>0.53</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.17</v>
+        <v>2.52</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.4</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.06</v>
+        <v>0.35</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.59</v>
+        <v>0.51</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.73</v>
+        <v>0.59</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.81</v>
+        <v>0.61</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.55</v>
+        <v>0.53</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.2</v>
+        <v>0.74</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.31</v>
+        <v>0.46</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>22.85</v>
+        <v>7.28</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.34</v>
+        <v>1.49</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.43</v>
+        <v>0.49</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.91</v>
+        <v>0.99</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.55</v>
+        <v>0.52</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.97</v>
+        <v>1.15</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.26</v>
+        <v>0.43</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.12</v>
+        <v>0.39</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.32</v>
+        <v>0.46</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.81</v>
+        <v>0.6</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.59</v>
+        <v>2.32</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.27</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.79</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41642.36805555555</v>
+        <v>44891.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.78</v>
+        <v>18.74</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>13.8</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.67</v>
+        <v>40.68</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.38</v>
+        <v>33.38</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.61</v>
+        <v>14.74</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.83</v>
+        <v>54.55</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>22.69</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.41</v>
+        <v>10.06</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.61</v>
+        <v>14.93</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.68</v>
+        <v>16.35</v>
       </c>
       <c r="M6" s="4" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="N6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="S6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.73</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>215.85</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.72</v>
+        <v>40.93</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>13.53</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.15</v>
+        <v>27.51</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.61</v>
+        <v>14.49</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.17</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.31</v>
+        <v>26.72</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.5</v>
+        <v>11.95</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.45</v>
+        <v>10.61</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.52</v>
+        <v>12.47</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.71</v>
+        <v>17.11</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.58</v>
+        <v>49.29</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.31</v>
+        <v>7.63</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41642.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41642.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>21.58</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41642.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41642.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41642.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>25.67</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>41.19</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>17.45</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>13.29</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>164.63</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>31.47</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>10.41</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>20.45</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>37.36</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>13.02</v>
+        <v>16.92</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_210.xlsx
+++ b/DATA_goal/Junction_Flooding_210.xlsx
@@ -444,7 +444,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
@@ -655,103 +655,103 @@
         <v>44891.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.02</v>
+        <v>20.18</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.37</v>
+        <v>13.65</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.28</v>
+        <v>42.75</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.47</v>
+        <v>34.69</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.88</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.1</v>
+        <v>51.01</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.44</v>
+        <v>24.43</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.25</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.61</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.76</v>
+        <v>17.6</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.58</v>
+        <v>15.79</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.21</v>
+        <v>22.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.34</v>
+        <v>13.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>23.3</v>
+        <v>233</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.39</v>
+        <v>43.92</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.46</v>
+        <v>14.58</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.91</v>
+        <v>29.08</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.52</v>
+        <v>25.16</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.87</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.37</v>
+        <v>13.65</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.73</v>
+        <v>17.33</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.52</v>
+        <v>45.21</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.82</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44891.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.16</v>
+        <v>21.62</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.55</v>
+        <v>15.53</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.67</v>
+        <v>46.69</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.82</v>
+        <v>38.17</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.7</v>
+        <v>17.01</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.52</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.62</v>
+        <v>26.18</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.14</v>
+        <v>11.43</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.7</v>
+        <v>17.02</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.71</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.96</v>
+        <v>19.61</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.39</v>
+        <v>23.94</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.4</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>25.02</v>
+        <v>250.2</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.73</v>
+        <v>47.32</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.16</v>
+        <v>31.62</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.66</v>
+        <v>16.58</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.15</v>
+        <v>31.52</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.38</v>
+        <v>13.79</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.38</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.45</v>
+        <v>14.52</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.94</v>
+        <v>19.43</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.92</v>
+        <v>59.18</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.75</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.95</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44891.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.92</v>
+        <v>19.22</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.4</v>
+        <v>13.98</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.41</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.16</v>
+        <v>41.63</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.41</v>
+        <v>34.07</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.97</v>
+        <v>59.66</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.33</v>
+        <v>23.27</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.24</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.52</v>
+        <v>15.19</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.72</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.75</v>
+        <v>17.55</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.13</v>
+        <v>21.33</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.77</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>22.16</v>
+        <v>221.59</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.21</v>
+        <v>42.09</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.82</v>
+        <v>28.18</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.48</v>
+        <v>14.81</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.86</v>
+        <v>28.59</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.26</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.95</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.86</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.42</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.41</v>
+        <v>54.13</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.36</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44891.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.52</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.29</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.52</v>
+        <v>25.25</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.53</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.12</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.85</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.08</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.7</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="P5" s="4" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.74</v>
       </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.28</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.93</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.16</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.92</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.32</v>
+        <v>23.17</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_210.xlsx
+++ b/DATA_goal/Junction_Flooding_210.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44891.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>20.18</v>
+        <v>20.178</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.65</v>
+        <v>13.652</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.07</v>
+        <v>4.068</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>42.75</v>
+        <v>42.752</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>34.69</v>
+        <v>34.691</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.88</v>
+        <v>15.879</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>51.01</v>
+        <v>51.007</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>24.43</v>
+        <v>24.432</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.25</v>
+        <v>10.251</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.61</v>
+        <v>15.607</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.87</v>
+        <v>16.868</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>17.6</v>
+        <v>17.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.07</v>
+        <v>5.069</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>15.79</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>22.09</v>
+        <v>22.094</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>13.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.5</v>
+        <v>3.498</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.45</v>
+        <v>2.451</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>233</v>
+        <v>232.996</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>43.92</v>
+        <v>43.923</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.58</v>
+        <v>14.575</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>29.08</v>
+        <v>29.082</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15</v>
+        <v>14.996</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>25.16</v>
+        <v>25.159</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.87</v>
+        <v>12.874</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.654</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.65</v>
+        <v>13.651</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.33</v>
+        <v>17.331</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>3.457</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>45.21</v>
+        <v>45.214</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.1</v>
+        <v>8.105</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>18.22</v>
+        <v>18.222</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44891.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21.62</v>
+        <v>21.619</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.53</v>
+        <v>15.535</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.98</v>
+        <v>1.983</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>46.69</v>
+        <v>46.693</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>38.17</v>
+        <v>38.168</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.01</v>
+        <v>17.013</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>65.15000000000001</v>
+        <v>65.15300000000001</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>26.18</v>
+        <v>26.178</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.43</v>
+        <v>11.429</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.02</v>
+        <v>17.023</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.71</v>
+        <v>18.713</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.61</v>
+        <v>19.608</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.43</v>
+        <v>5.435</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.92</v>
+        <v>16.918</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>23.94</v>
+        <v>23.942</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.4</v>
+        <v>14.402</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>1.61</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.24</v>
+        <v>1.239</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>250.2</v>
+        <v>250.204</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>47.32</v>
+        <v>47.324</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.62</v>
+        <v>15.616</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>31.62</v>
+        <v>31.615</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.58</v>
+        <v>16.582</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.81</v>
+        <v>2.808</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>31.52</v>
+        <v>31.521</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.79</v>
+        <v>13.794</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.38</v>
+        <v>12.375</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.52</v>
+        <v>14.519</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.43</v>
+        <v>19.435</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.266</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>59.18</v>
+        <v>59.185</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.75</v>
+        <v>8.747999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19.52</v>
+        <v>19.524</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44891.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>19.22</v>
+        <v>19.217</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.98</v>
+        <v>13.976</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.41</v>
+        <v>1.415</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>41.63</v>
+        <v>41.629</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>34.07</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.12</v>
+        <v>15.124</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>59.66</v>
+        <v>59.656</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.27</v>
+        <v>23.269</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.24</v>
+        <v>10.241</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.19</v>
+        <v>15.195</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>16.72</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.55</v>
+        <v>17.546</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.83</v>
+        <v>4.831</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>15.04</v>
+        <v>15.038</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>21.33</v>
+        <v>21.335</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.77</v>
+        <v>12.771</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.08</v>
+        <v>1.081</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.907</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>221.59</v>
+        <v>221.591</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>42.09</v>
+        <v>42.086</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.88</v>
+        <v>13.881</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>28.18</v>
+        <v>28.182</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.81</v>
+        <v>14.815</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>2.38</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>28.59</v>
+        <v>28.593</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.26</v>
+        <v>12.261</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.95</v>
+        <v>10.953</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.86</v>
+        <v>12.859</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.42</v>
+        <v>17.425</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>54.13</v>
+        <v>54.128</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.79</v>
+        <v>7.789</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>17.36</v>
+        <v>17.355</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>6.08</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44891.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>40.68</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>33.38</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.74</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>54.55</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.93</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>17.21</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.85</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>215.85</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>40.93</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>27.51</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.49</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>26.72</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.61</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.11</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>49.29</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.92</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_210.xlsx
+++ b/DATA_goal/Junction_Flooding_210.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44891.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.73</v>
+        <v>6.726</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>4.711</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>14.521</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>11.712</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>5.294</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>25.245</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>8.144</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>3.531</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>5.122</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>5.851</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>6.077</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.696</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>5.263</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>7.441</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>4.617</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>72.822</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>14.931</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>4.858</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>9.877000000000001</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>5.161</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>1.002</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>11.533</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>4.291</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>3.919</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>4.585</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>6.041</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>23.171</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>2.664</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>6.075</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44891.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>40.68</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>33.38</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>54.55</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="N6" s="4" t="n">
         <v>4.71</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>25.25</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="S5" s="4" t="n">
+      <c r="O6" s="4" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>215.85</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>40.93</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>27.51</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>26.72</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="AE6" s="4" t="n">
         <v>0.43</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>72.81999999999999</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>14.93</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>23.17</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>6.08</v>
+      <c r="AF6" s="4" t="n">
+        <v>49.29</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>16.92</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_210.xlsx
+++ b/DATA_goal/Junction_Flooding_210.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44891.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.726</v>
+        <v>6.73</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.711</v>
+        <v>4.71</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.521</v>
+        <v>14.52</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.712</v>
+        <v>11.71</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.294</v>
+        <v>5.29</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>25.245</v>
+        <v>25.25</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.144</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.531</v>
+        <v>3.53</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.122</v>
+        <v>5.12</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.851</v>
+        <v>5.85</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.077</v>
+        <v>6.08</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.696</v>
+        <v>1.7</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.263</v>
+        <v>5.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.441</v>
+        <v>7.44</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.617</v>
+        <v>4.62</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.736</v>
+        <v>0.74</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>72.822</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.931</v>
+        <v>14.93</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.858</v>
+        <v>4.86</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.877000000000001</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.161</v>
+        <v>5.16</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.002</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.533</v>
+        <v>11.53</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.291</v>
+        <v>4.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.919</v>
+        <v>3.92</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.585</v>
+        <v>4.58</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.041</v>
+        <v>6.04</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>23.171</v>
+        <v>23.17</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.664</v>
+        <v>2.66</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.075</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44891.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>40.68</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>33.38</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.74</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>54.55</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.93</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>17.21</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.85</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>215.85</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>40.93</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>27.51</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.49</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>26.72</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.61</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.11</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>49.29</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.92</v>
+        <v>6.08</v>
       </c>
     </row>
   </sheetData>
